--- a/in.merchant/src/main/resources/ExcelFiles/MerchantDetails.xlsx
+++ b/in.merchant/src/main/resources/ExcelFiles/MerchantDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\eclipse-workspace\in.merchant\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\git\in.merchant\in.merchant\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01F825-918F-4FE0-9CEC-7D1F32C678C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF24E24-4CDB-4715-8726-0D6F361BA8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6699CFD5-42A9-42AF-8803-4C855A8723F6}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Tomon@123</t>
   </si>
   <si>
-    <t>Pet store</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
